--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\Exam_FC\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15D63E8-E9BA-4E61-B3C6-2E32D089148F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D359B0-8FF6-42A4-8157-F79F5E51D6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{40E118F5-BE4A-458B-923B-FD43C72727AE}"/>
   </bookViews>
@@ -221,30 +221,6 @@
     <t>resistent</t>
   </si>
   <si>
-    <t>001_PC346C</t>
-  </si>
-  <si>
-    <t>002_PC346C</t>
-  </si>
-  <si>
-    <t>003_PC346C</t>
-  </si>
-  <si>
-    <t>004_PC346C</t>
-  </si>
-  <si>
-    <t>005_PC339</t>
-  </si>
-  <si>
-    <t>006_PC339</t>
-  </si>
-  <si>
-    <t>007_PC339</t>
-  </si>
-  <si>
-    <t>008_PC339</t>
-  </si>
-  <si>
     <t>Samples</t>
   </si>
   <si>
@@ -294,6 +270,30 @@
   </si>
   <si>
     <t>EpCAM</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
   </si>
 </sst>
 </file>
@@ -379,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -387,7 +387,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -786,7 +785,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,7 +804,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>11</v>
@@ -819,7 +818,7 @@
       <c r="E1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="7"/>
+      <c r="F1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -831,7 +830,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
@@ -848,7 +847,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
@@ -865,7 +864,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
@@ -882,7 +881,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
         <v>40</v>
@@ -899,7 +898,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
         <v>41</v>
@@ -916,7 +915,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
@@ -933,7 +932,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
@@ -950,7 +949,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
         <v>44</v>
@@ -966,7 +965,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{D1127A42-F07D-4E93-9D5E-40C193A9804C}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="D26:D1048576 O1:O25">
     <cfRule type="colorScale" priority="1">
@@ -1161,7 +1159,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -1172,7 +1170,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1183,7 +1181,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -1194,7 +1192,7 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1205,7 +1203,7 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -1216,7 +1214,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -1227,7 +1225,7 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -1238,7 +1236,7 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -1249,7 +1247,7 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -1260,7 +1258,7 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -1271,7 +1269,7 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -1282,7 +1280,7 @@
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -1293,7 +1291,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1304,7 +1302,7 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1503,7 +1501,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1514,7 +1512,7 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
